--- a/biology/Botanique/Mayaca_fluviatilis/Mayaca_fluviatilis.xlsx
+++ b/biology/Botanique/Mayaca_fluviatilis/Mayaca_fluviatilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mayaque des rivières
 Mayaca fluviatilis, en français Mayaque des rivières, est une espèce d'angiospermes monocotylédone de la famille des Mayacaceae, endémique des milieux tropicaux tempérés à chauds d'Amérique centrale et du Sud. Son nom vernaculaire en anglais est « bog moss » c'est-à-dire « Mousse de tourbière ».
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 En 1775 Jean Baptiste Fusée-Aublet, qui recueille la plante en Guyane, la décrit ainsi : 
-« LA MAYAQUE des rivièresCette PLANTE ressemble à une mousse. Sa tige, et ses branches sont cylindriques, grêles et menues, chargées de feuilles sessiles, disposées près-à-près, étroites, et pointues : vues à la loupe, ces feuilles paraissent avoir trois nervures longitudinales, séparées par un très grand nombre de transversales.Les FLEURS sortent de l’aisselle des feuilles ; elles sont solitaires, et portées sur un pédoncule  garni à sa base de deux petites écailles.Le CALICE est de trois pièces, vertes, larges, oblongues, et aiguës.La COROLLE est à trois pétales blancs, larges, concaves, attachés entre les divisions du calice.Les ÉTAMINES sont trois, placées au dessous de l’ovaire. Les FILETS sont courbes, blancs. Leur ANTHERE est longue, et à deux bourses.Le PISTIL est un ovaire arrondi, surmonté d’un STYLE terminé par un STIGMATE à trois rayons.L’OVAIRE devient une CAPSULE sèche, couronnée par le style et le stigmate qui subsistent : elle s’ouvre en trois valves de la pointe à la base, et sous chacune des valves  sont deux SEMENCES placées l’une au dessus de l’autre : ces semences sont noires, rondes, et striées.J’ai trouvé cette plante sur les bords d’un ruisseau qui se jette dans la rivière de Sinémari ; elle était en fleur et en fruit dans le mois de Novembre[1]. »
+« LA MAYAQUE des rivièresCette PLANTE ressemble à une mousse. Sa tige, et ses branches sont cylindriques, grêles et menues, chargées de feuilles sessiles, disposées près-à-près, étroites, et pointues : vues à la loupe, ces feuilles paraissent avoir trois nervures longitudinales, séparées par un très grand nombre de transversales.Les FLEURS sortent de l’aisselle des feuilles ; elles sont solitaires, et portées sur un pédoncule  garni à sa base de deux petites écailles.Le CALICE est de trois pièces, vertes, larges, oblongues, et aiguës.La COROLLE est à trois pétales blancs, larges, concaves, attachés entre les divisions du calice.Les ÉTAMINES sont trois, placées au dessous de l’ovaire. Les FILETS sont courbes, blancs. Leur ANTHERE est longue, et à deux bourses.Le PISTIL est un ovaire arrondi, surmonté d’un STYLE terminé par un STIGMATE à trois rayons.L’OVAIRE devient une CAPSULE sèche, couronnée par le style et le stigmate qui subsistent : elle s’ouvre en trois valves de la pointe à la base, et sous chacune des valves  sont deux SEMENCES placées l’une au dessus de l’autre : ces semences sont noires, rondes, et striées.J’ai trouvé cette plante sur les bords d’un ruisseau qui se jette dans la rivière de Sinémari ; elle était en fleur et en fruit dans le mois de Novembre. »
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'espèce a été décrite en premier en 1775 par le botaniste français Jean Baptiste Christian Fusée-Aublet en Guyane.
-Par la suite de nombreux auteurs l'ont nommée autrement, mais seul le nom binomial Mayaca fluviatilis est aujourd'hui accepté. Voici la liste de ses synonymes[2] :
+Par la suite de nombreux auteurs l'ont nommée autrement, mais seul le nom binomial Mayaca fluviatilis est aujourd'hui accepté. Voici la liste de ses synonymes :
 Coletia madida Vell.
 Mayaca aubletii Michx.
 Mayaca aubletii var. wrightii (Griseb.) Horn
